--- a/example/batchConvert/策划表/item_copy_wtf.xlsx
+++ b/example/batchConvert/策划表/item_copy_wtf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyi/splan-git/xlsx-fbs/example/batchConvert/策划表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01C7F2-1077-F741-8710-78C06427063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7DB050-80AC-A74A-8ACB-331FC8A4FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29300" yWindow="3440" windowWidth="28100" windowHeight="17360" activeTab="1" xr2:uid="{17ACE23F-0396-854A-ACC1-061B131E8100}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>如果是自动推导的id类型，最低会被设置为uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -645,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
